--- a/drivers/TestData.xlsx
+++ b/drivers/TestData.xlsx
@@ -31,16 +31,16 @@
     <t>WrongPassword</t>
   </si>
   <si>
-    <t>nrohan016@gmail.com</t>
-  </si>
-  <si>
     <t>atm@gmail.com</t>
   </si>
   <si>
     <t>Tester@1234</t>
   </si>
   <si>
-    <t>Tester</t>
+    <t>ENTERYOUREMAIL</t>
+  </si>
+  <si>
+    <t>ENTERYOURPASSWORD</t>
   </si>
 </sst>
 </file>
@@ -422,22 +422,23 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="rahmatk5050@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="developer@321"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
